--- a/DAM_Database/Hazards/Salinity/Adaptation Deficit_upazila.xlsx
+++ b/DAM_Database/Hazards/Salinity/Adaptation Deficit_upazila.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PortableCompiler\Codes\Dynamic Adaptation Model\DAM\DAM_Database\Hazards\Salinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA223E9A-55E1-4A9E-98CA-74FE37D1896F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AF1482-BB3D-4D5E-899B-AF8CF3C94A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{498DBFC2-CFCD-45D1-9CB3-0011FEE63B85}"/>
   </bookViews>
@@ -276,13 +276,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E1753B-333C-41B6-AB6E-50BC938FE7B1}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,49 +689,49 @@
       <c r="E2">
         <v>400108</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>30.776490267822705</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>13.907015323849404</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
         <v>25.303933456958898</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>24.664468559230702</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>12.485949832549604</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>18.851168264959195</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <v>19.853335626607794</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
         <v>11.731756341717098</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="4">
         <v>15.412007033181801</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <v>22.260792878748504</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="4">
         <v>22.897414990304497</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="4">
         <v>21.458124837105903</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="4">
         <v>65.344688143920692</v>
       </c>
     </row>
@@ -750,49 +751,49 @@
       <c r="E3">
         <v>400114</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
         <v>68.178400089709498</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <v>47.523740023866097</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
         <v>34.785153277327602</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
         <v>38.897662603962601</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="4">
         <v>49.03179378787609</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -812,49 +813,49 @@
       <c r="E4">
         <v>400134</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>73.652840316075398</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>13.737976492306897</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <v>69.015259835214991</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>62.296683857061311</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>59.476109211858194</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>51.834887156048602</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>58.257990851768106</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>3.3914039097866002</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="4">
         <v>58.569288574030296</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="4">
         <v>61.491994202583001</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
         <v>48.072608499235102</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="4">
         <v>58.739936758981393</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="4">
         <v>57.646859167060292</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="4">
         <v>88.638208713959997</v>
       </c>
     </row>
@@ -874,49 +875,49 @@
       <c r="E5">
         <v>400138</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>19.725892364226194</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>30.201391316418803</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>27.373301242378002</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>37.141110464923401</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>27.150768708874708</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>29.7878320455102</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
         <v>37.189400080868097</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="4">
         <v>35.164028233860897</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="4">
         <v>22.760348651891803</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="4">
         <v>27.372326051152896</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="4">
         <v>28.254921785804697</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="4">
         <v>13.817979004467794</v>
       </c>
     </row>
@@ -936,49 +937,49 @@
       <c r="E6">
         <v>400156</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>52.784733303651201</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>34.626871371570395</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>67.879856955117205</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>60.862766798419699</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>57.229356013068291</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>48.694597880487194</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>54.323948392765601</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
         <v>57.974872056147298</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <v>57.752987395711905</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <v>46.897214612306506</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="4">
         <v>56.827364361123799</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="4">
         <v>54.983569421132692</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="4">
         <v>88.417060167422406</v>
       </c>
     </row>
@@ -998,49 +999,49 @@
       <c r="E7">
         <v>400158</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>29.188694512446002</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>34.125415906600395</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>30.701913228065603</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>41.438920740552796</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>30.451727879128001</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>33.520884438743096</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>18.382285901616701</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <v>41.547529907735402</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="4">
         <v>39.510916828344101</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="4">
         <v>24.997500915262407</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="4">
         <v>30.686184621669</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
         <v>31.636034170610905</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="4">
         <v>18.529007822931099</v>
       </c>
     </row>
@@ -1060,49 +1061,49 @@
       <c r="E8">
         <v>400160</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>36.867783399384088</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>44.735785972228804</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>40.0109149291752</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>43.708061646614503</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>37.316698148808605</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>40.741848449810092</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
         <v>42.788254983304007</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
         <v>44.790593226879608</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <v>32.375297067222498</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="4">
         <v>38.924755358248298</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <v>39.308575011640599</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="4">
         <v>32.714381189709904</v>
       </c>
     </row>
@@ -1122,49 +1123,49 @@
       <c r="E9">
         <v>400173</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>44.944770900877408</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <v>4.7636616978855963</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>53.891703461943393</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>48.718845893364801</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>43.335986188623103</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="4">
         <v>41.458613950222301</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="4">
         <v>45.628076458643797</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="4">
         <v>2.5396806841289976</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="4">
         <v>42.087755718424702</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="4">
         <v>46.282436031217593</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="4">
         <v>39.534192232900601</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="4">
         <v>46.062488821119807</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="4">
         <v>45.445904781405098</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="4">
         <v>82.551671935535197</v>
       </c>
     </row>
@@ -1184,49 +1185,49 @@
       <c r="E10">
         <v>400177</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>48.441701504119308</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
         <v>43.927253086386401</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>43.574072241567698</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>44.489296024201096</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <v>39.9759905837236</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>42.439790716753102</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <v>4.9342645541694985</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="4">
         <v>43.101630940746404</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="4">
         <v>45.804391356669207</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="4">
         <v>35.8461570333642</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="4">
         <v>42.070625485462998</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="4">
         <v>42.093409351353294</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="4">
         <v>46.108660743138095</v>
       </c>
     </row>
@@ -1246,49 +1247,49 @@
       <c r="E11">
         <v>404104</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>69.425244988558006</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
         <v>67.382646124327493</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>60.589794980520992</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>56.624268524888308</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="4">
         <v>49.884505348117294</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="4">
         <v>56.278062474930302</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
         <v>55.576946299955111</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="4">
         <v>59.108085281545812</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="4">
         <v>46.399549150828598</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="4">
         <v>56.945239267196989</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="4">
         <v>55.769810221972605</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="4">
         <v>88.412958835212592</v>
       </c>
     </row>
@@ -1308,49 +1309,49 @@
       <c r="E12">
         <v>404109</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>73.580339896084496</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <v>44.688155386100497</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
         <v>68.343576397475502</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="4">
         <v>62.278456716432707</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>59.310022873023001</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="4">
         <v>53.433649597389099</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="4">
         <v>58.679099385391098</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
         <v>58.488070632741106</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="4">
         <v>61.146632725408701</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="4">
         <v>50.689191647559703</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="4">
         <v>59.129646844487297</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="4">
         <v>58.250765406381902</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="4">
         <v>86.183907758994494</v>
       </c>
     </row>
@@ -1370,49 +1371,49 @@
       <c r="E13">
         <v>404111</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>72.614639098091303</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <v>10.024178281776603</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
         <v>67.552663121332202</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>61.50218598005619</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <v>58.899886189486296</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="4">
         <v>52.786443778554506</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="4">
         <v>58.070910454010694</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
         <v>58.101104104604197</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="4">
         <v>60.644345328822816</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="4">
         <v>49.891035707110696</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="4">
         <v>58.426182769909992</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="4">
         <v>57.594245150722401</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="4">
         <v>86.660588721762295</v>
       </c>
     </row>
@@ -1432,49 +1433,49 @@
       <c r="E14">
         <v>404123</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>55.456818688870094</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <v>3.5926156605581019</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
         <v>65.504859725598891</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <v>59.475616306481307</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="4">
         <v>55.794388119158299</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="4">
         <v>50.535137429922905</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="4">
         <v>55.750153163088299</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="4">
         <v>4.8838416608825046</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="4">
         <v>54.907088185057098</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="4">
         <v>57.923862549112506</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="4">
         <v>48.004085004231399</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="4">
         <v>56.345331943046993</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="4">
         <v>55.411315900067407</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="4">
         <v>86.709960873540794</v>
       </c>
     </row>
@@ -1494,49 +1495,49 @@
       <c r="E15">
         <v>404138</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>65.069840286558104</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <v>11.434776296531901</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <v>66.392836647494804</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="4">
         <v>60.347242092802887</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>57.71515461159791</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="4">
         <v>51.700319988579402</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="4">
         <v>56.994936770474006</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
         <v>56.956484720867998</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="4">
         <v>59.5571964860804</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="4">
         <v>48.7459764258791</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="4">
         <v>57.3155486617988</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="4">
         <v>56.504389389828006</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="4">
         <v>86.956497705626191</v>
       </c>
     </row>
@@ -1556,49 +1557,49 @@
       <c r="E16">
         <v>404147</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>70.332601502578299</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <v>33.298742099674705</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
         <v>65.691317629117393</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <v>59.672698380653102</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>57.932664902309703</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="4">
         <v>51.299087301965997</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="4">
         <v>56.635673871748104</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
         <v>57.187105408576791</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="4">
         <v>59.461787186996197</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="4">
         <v>48.057828628336594</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="4">
         <v>56.764729234698905</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="4">
         <v>56.044921165286198</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="4">
         <v>87.266144426653909</v>
       </c>
     </row>
@@ -1618,49 +1619,49 @@
       <c r="E17">
         <v>404161</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>66.334292574985</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <v>36.342450930497101</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>61.274721172217703</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <v>55.306243795981104</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>48.413699548472295</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="4">
         <v>45.408338564364897</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="4">
         <v>50.388184768864399</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
         <v>46.871694016127705</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="4">
         <v>51.886939365656303</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="4">
         <v>44.724755369009998</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="4">
         <v>51.755832892298301</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="4">
         <v>50.413036780863798</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="4">
         <v>85.170157909959599</v>
       </c>
     </row>
@@ -1680,49 +1681,49 @@
       <c r="E18">
         <v>404190</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>61.877415213321505</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="4">
         <v>17.880691693149103</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
         <v>68.422245597055493</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>61.366591931920091</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="4">
         <v>59.350427450832797</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="4">
         <v>51.169483464150304</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="4">
         <v>57.960465655609198</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="4">
         <v>0.87804990978520014</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="4">
         <v>56.754444242105208</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="4">
         <v>61.300418772652101</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="4">
         <v>46.934239190512095</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="4">
         <v>57.986185801398008</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="4">
         <v>57.034755502169702</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="4">
         <v>88.616498899537106</v>
       </c>
     </row>
@@ -1742,49 +1743,49 @@
       <c r="E19">
         <v>404712</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>73.520128464375105</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="4">
         <v>34.189695796184992</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
         <v>68.121125680630598</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="4">
         <v>61.188817666865404</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="4">
         <v>44.346668791273302</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="4">
         <v>50.295849548634699</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="4">
         <v>56.608041936353104</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="4">
         <v>10.170905350229297</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="4">
         <v>45.616172416539705</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="4">
         <v>60.705394790127102</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="4">
         <v>47.293358897928798</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="4">
         <v>57.409137166579406</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="4">
         <v>56.097756533727996</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="4">
         <v>88.155968803421004</v>
       </c>
     </row>
@@ -1804,49 +1805,49 @@
       <c r="E20">
         <v>404717</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>52.705150607577799</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="4">
         <v>8.9246918618789977</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
         <v>51.848559621638792</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="4">
         <v>47.020830966508996</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="4">
         <v>51.409972355672195</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="4">
         <v>43.445345728970608</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="4">
         <v>47.153263397063306</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="4">
         <v>29.865893051917801</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="4">
         <v>51.030856806276205</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="4">
         <v>51.305302241412207</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="4">
         <v>38.637982643470593</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="4">
         <v>45.506893550536809</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="4">
         <v>45.881982649802097</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="4">
         <v>57.485989886037295</v>
       </c>
     </row>
@@ -1866,49 +1867,49 @@
       <c r="E21">
         <v>404730</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>72.985350009070089</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>0.80712117582190102</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
         <v>68.284613529166592</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="4">
         <v>62.637783894992602</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <v>59.489951105317608</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="4">
         <v>53.35652113294951</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="4">
         <v>59.03810801336671</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
         <v>58.715128829123998</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="4">
         <v>61.310668153270001</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="4">
         <v>50.615484635768503</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="4">
         <v>59.636621368590603</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="4">
         <v>58.666422907675006</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="4">
         <v>90.496905317983263</v>
       </c>
     </row>
@@ -1928,49 +1929,49 @@
       <c r="E22">
         <v>404740</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>54.141346377210198</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <v>26.009227409661101</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
         <v>63.506748173095694</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="4">
         <v>56.814177233988993</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="4">
         <v>47.983399832235506</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="4">
         <v>45.229876571163899</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="4">
         <v>51.160398811886701</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="4">
         <v>9.7507639898939011</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="4">
         <v>46.447600050325505</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="4">
         <v>52.129936623296402</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="4">
         <v>43.227423260463503</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="4">
         <v>52.782040767012695</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="4">
         <v>51.188884516199494</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="4">
         <v>87.141156837682104</v>
       </c>
     </row>
@@ -1990,49 +1991,49 @@
       <c r="E23">
         <v>404748</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
         <v>23.092642715513499</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
         <v>58.687187505354203</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <v>52.594897987280007</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="4">
         <v>45.452069988401192</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="4">
         <v>43.252035170733805</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="4">
         <v>48.213558300860797</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
         <v>43.930067411117605</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="4">
         <v>49.154702758087105</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="4">
         <v>41.477276817307406</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="4">
         <v>49.307209394337107</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="4">
         <v>48.172786681550697</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="4">
         <v>85.972744590368791</v>
       </c>
     </row>
@@ -2052,49 +2053,49 @@
       <c r="E24">
         <v>404753</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>47.251929250356596</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
         <v>9.9592966298570058</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>47.464190734211201</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="4">
         <v>43.012855672505701</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="4">
         <v>47.276605634482202</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="4">
         <v>40.16508142882099</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="4">
         <v>43.427750190205195</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="4">
         <v>32.311309791134704</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="4">
         <v>46.771663939384602</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="4">
         <v>47.29606576193931</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="4">
         <v>35.458394530962103</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="4">
         <v>41.760213560779704</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="4">
         <v>42.179560261490003</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="4">
         <v>43.838462433752603</v>
       </c>
     </row>
@@ -2114,49 +2115,49 @@
       <c r="E25">
         <v>404764</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
         <v>9.3928777999681028</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
         <v>30.522667703933603</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="4">
         <v>26.709807351228598</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="4">
         <v>17.890183556846402</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="4">
         <v>21.561041712808006</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="4">
         <v>23.768785903241309</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="4">
         <v>14.8071696021435</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="4">
         <v>16.944439506044706</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="4">
         <v>21.535949722311404</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="4">
         <v>21.290421767230594</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="4">
         <v>24.705723838159898</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="4">
         <v>24.029687107543797</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="4">
         <v>57.445058441765198</v>
       </c>
     </row>
@@ -2176,49 +2177,49 @@
       <c r="E26">
         <v>404769</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>71.263211109682601</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="4">
         <v>42.336109751362208</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
         <v>66.4007985969873</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="4">
         <v>60.369618957458293</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="4">
         <v>58.239165660113997</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="4">
         <v>51.838535098851104</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="4">
         <v>57.158552683254001</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
         <v>57.528892405283003</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="4">
         <v>59.9423798778163</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="4">
         <v>48.750216064678696</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="4">
         <v>57.388663974296605</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="4">
         <v>56.618577027480008</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="4">
         <v>87.104895854382207</v>
       </c>
     </row>
@@ -2238,49 +2239,49 @@
       <c r="E27">
         <v>404775</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>9.5203760224624006</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="4">
         <v>61.779919326169299</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
         <v>61.035570203568199</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="4">
         <v>55.204094922986101</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="4">
         <v>43.463529797502702</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="4">
         <v>46.454299530439002</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="4">
         <v>51.165435682864803</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
         <v>40.576711819260098</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="4">
         <v>51.351159416506199</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="4">
         <v>45.474726251555303</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="4">
         <v>52.098769749798791</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="4">
         <v>51.217098050924406</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="4">
         <v>85.16833975125499</v>
       </c>
     </row>
@@ -2300,49 +2301,49 @@
       <c r="E28">
         <v>404794</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="4">
         <v>74.807248918534796</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="4">
         <v>39.998098375064501</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
         <v>70.046987999035395</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="4">
         <v>63.434077820736398</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="4">
         <v>60.203909811426293</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="4">
         <v>52.918542872864293</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="4">
         <v>59.214028592433799</v>
       </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
         <v>59.275475462222204</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="4">
         <v>62.3133473761606</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="4">
         <v>49.359660224696903</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="4">
         <v>59.815400663689601</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="4">
         <v>58.668550840691999</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="4">
         <v>88.348585079434599</v>
       </c>
     </row>
@@ -2362,49 +2363,49 @@
       <c r="E29">
         <v>406528</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="4">
         <v>65.869573976348093</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="4">
         <v>0.50442271938000438</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="4">
         <v>22.055469018905892</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="4">
         <v>67.332758366283599</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="4">
         <v>60.863313619411095</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="4">
         <v>57.095850750224095</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="4">
         <v>50.717713308542301</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="4">
         <v>56.965863400374907</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
         <v>55.775068409171389</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="4">
         <v>59.774867259427502</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="4">
         <v>47.005244395444699</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="4">
         <v>57.385663218852699</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="4">
         <v>56.349391759402202</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="4">
         <v>88.384591612177204</v>
       </c>
     </row>
@@ -2424,49 +2425,49 @@
       <c r="E30">
         <v>406552</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="4">
         <v>4.4910286140345974</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="4">
         <v>72.465691782911108</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
         <v>67.871323410725793</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="4">
         <v>61.6804369613414</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="4">
         <v>28.4417781266466</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
         <v>36.736107635118799</v>
       </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
         <v>35.172389055283105</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="4">
         <v>34.871683065722706</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="4">
         <v>49.915203670153595</v>
       </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
         <v>51.0440983699566</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="4">
         <v>81.472999087446397</v>
       </c>
     </row>
@@ -2486,49 +2487,49 @@
       <c r="E31">
         <v>406576</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="4">
         <v>54.283736085637699</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="4">
         <v>45.153416434759798</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
         <v>67.057632037747197</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="4">
         <v>59.046145730663405</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="4">
         <v>59.188883950597607</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="4">
         <v>48.7726494681378</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="4">
         <v>52.789585912638202</v>
       </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
+      <c r="N31" s="4">
+        <v>0</v>
+      </c>
+      <c r="O31" s="4">
         <v>58.553724258925314</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="4">
         <v>58.366603568070509</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="4">
         <v>48.357646507453197</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="4">
         <v>53.991116269310993</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="4">
         <v>54.845039127132097</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="4">
         <v>87.956603588941789</v>
       </c>
     </row>
@@ -2548,49 +2549,49 @@
       <c r="E32">
         <v>408704</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="4">
         <v>56.191295990155901</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="4">
         <v>20.505922647181301</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
         <v>54.533098135938495</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <v>49.464632412052303</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="4">
         <v>52.722750424723607</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="4">
         <v>44.9796042274115</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="4">
         <v>49.029437031283493</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="4">
         <v>17.678319463843106</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="4">
         <v>52.255982042975106</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="4">
         <v>52.9265463299147</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="4">
         <v>40.465082184264801</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="4">
         <v>47.655087900216095</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="4">
         <v>47.887110299045197</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="4">
         <v>68.425249302356804</v>
       </c>
     </row>
@@ -2610,49 +2611,49 @@
       <c r="E33">
         <v>408725</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="4">
         <v>70.627989294255499</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="4">
         <v>2.4424622267199547E-2</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
         <v>65.932238967348894</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="4">
         <v>59.909877300778987</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="4">
         <v>58.060203155184212</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="4">
         <v>51.489645901558404</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="4">
         <v>56.8226156986549</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="4">
         <v>15.207533945900698</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="4">
         <v>57.308085828675189</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="4">
         <v>59.616341844110302</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="4">
         <v>48.2918639776736</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="4">
         <v>56.980706069134904</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="4">
         <v>56.246456982108292</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="4">
         <v>87.232803410088394</v>
       </c>
     </row>
@@ -2672,49 +2673,49 @@
       <c r="E34">
         <v>408743</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="4">
         <v>57.387227606423011</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="4">
         <v>37.059141392708995</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
         <v>65.461646692711199</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="4">
         <v>59.384122943507009</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="4">
         <v>55.791211449531197</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="4">
         <v>50.516505295705905</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="4">
         <v>55.757555220106902</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="4">
         <v>5.2783095047232997</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="4">
         <v>54.799215687115201</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="4">
         <v>57.947840138049798</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="4">
         <v>47.845745397026093</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="4">
         <v>56.261395693012894</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="4">
         <v>55.367170850005088</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="4">
         <v>86.733257557149201</v>
       </c>
     </row>
@@ -2734,49 +2735,49 @@
       <c r="E35">
         <v>408747</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="4">
         <v>66.010396715734501</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="4">
         <v>18.605829935524898</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
         <v>62.328706838430307</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="4">
         <v>56.340226232231203</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="4">
         <v>56.105217356537196</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="4">
         <v>48.678080286145999</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="4">
         <v>53.987692761275795</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="4">
         <v>19.816950019833403</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="4">
         <v>55.44302455040571</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="4">
         <v>57.274390180066902</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="4">
         <v>44.849771018383301</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="4">
         <v>53.711290920643407</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="4">
         <v>53.192894198928009</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="4">
         <v>86.1370187421834</v>
       </c>
     </row>
@@ -2796,49 +2797,49 @@
       <c r="E36">
         <v>408782</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="4">
         <v>59.024034252743803</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="4">
         <v>34.848955411095005</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
         <v>63.5516550248459</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="4">
         <v>57.138981683060507</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="4">
         <v>55.468259242174902</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="4">
         <v>48.9350822512476</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="4">
         <v>53.661370915798599</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="4">
         <v>13.038907004495092</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="4">
         <v>53.911458925501201</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="4">
         <v>56.581592968693798</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="4">
         <v>46.158123538312402</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="4">
         <v>54.3566246103696</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="4">
         <v>53.414975124536198</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="4">
         <v>86.635980904081407</v>
       </c>
     </row>
@@ -2858,49 +2859,49 @@
       <c r="E37">
         <v>408786</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <v>46.1671848421406</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
         <v>46.175022313734694</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="4">
         <v>41.233502306785795</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="4">
         <v>46.231995209462205</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="4">
         <v>38.117723059553498</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="4">
         <v>41.740289571020696</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="4">
         <v>31.059395391715306</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="4">
         <v>45.845978893378302</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="4">
         <v>46.179487423825094</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="4">
         <v>33.031996256396198</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="4">
         <v>39.9897111923731</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="4">
         <v>40.327804004198406</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="4">
         <v>38.773360447833795</v>
       </c>
     </row>
@@ -2920,49 +2921,49 @@
       <c r="E38">
         <v>408790</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="4">
         <v>67.602472540742099</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="4">
         <v>21.215693528218598</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
         <v>63.452060358784415</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="4">
         <v>57.458515116452901</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="4">
         <v>56.689959569628797</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="4">
         <v>49.538127696322995</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="4">
         <v>54.869632183966303</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="4">
         <v>15.883443375346095</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="4">
         <v>55.998003151988705</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="4">
         <v>57.987851685543504</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="4">
         <v>45.913904229704606</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="4">
         <v>54.736199377134</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="4">
         <v>54.147234024908499</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="4">
         <v>86.870161731508901</v>
       </c>
     </row>

--- a/DAM_Database/Hazards/Salinity/Adaptation Deficit_upazila.xlsx
+++ b/DAM_Database/Hazards/Salinity/Adaptation Deficit_upazila.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PortableCompiler\Codes\Dynamic Adaptation Model\DAM\DAM_Database\Hazards\Salinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AF1482-BB3D-4D5E-899B-AF8CF3C94A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BB6D7B-8F64-420A-A76A-BA641829D94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{498DBFC2-CFCD-45D1-9CB3-0011FEE63B85}"/>
   </bookViews>
@@ -276,14 +276,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E1753B-333C-41B6-AB6E-50BC938FE7B1}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,49 +688,49 @@
       <c r="E2">
         <v>400108</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>30.776490267822705</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2">
         <v>13.907015323849404</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>25.303933456958898</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>24.664468559230702</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2">
         <v>12.485949832549604</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2">
         <v>18.851168264959195</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2">
         <v>19.853335626607794</v>
       </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>11.731756341717098</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2">
         <v>15.412007033181801</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2">
         <v>22.260792878748504</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2">
         <v>22.897414990304497</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2">
         <v>21.458124837105903</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2">
         <v>65.344688143920692</v>
       </c>
     </row>
@@ -751,49 +750,49 @@
       <c r="E3">
         <v>400114</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>68.178400089709498</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>47.523740023866097</v>
       </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>34.785153277327602</v>
       </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>38.897662603962601</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3">
         <v>49.03179378787609</v>
       </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>0</v>
       </c>
     </row>
@@ -813,49 +812,49 @@
       <c r="E4">
         <v>400134</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>73.652840316075398</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <v>13.737976492306897</v>
       </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>69.015259835214991</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4">
         <v>62.296683857061311</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4">
         <v>59.476109211858194</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4">
         <v>51.834887156048602</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4">
         <v>58.257990851768106</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4">
         <v>3.3914039097866002</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4">
         <v>58.569288574030296</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4">
         <v>61.491994202583001</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4">
         <v>48.072608499235102</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4">
         <v>58.739936758981393</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4">
         <v>57.646859167060292</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4">
         <v>88.638208713959997</v>
       </c>
     </row>
@@ -875,49 +874,49 @@
       <c r="E5">
         <v>400138</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>19.725892364226194</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>30.201391316418803</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
         <v>27.373301242378002</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5">
         <v>37.141110464923401</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5">
         <v>27.150768708874708</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>29.7878320455102</v>
       </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>37.189400080868097</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <v>35.164028233860897</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5">
         <v>22.760348651891803</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5">
         <v>27.372326051152896</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5">
         <v>28.254921785804697</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5">
         <v>13.817979004467794</v>
       </c>
     </row>
@@ -937,49 +936,49 @@
       <c r="E6">
         <v>400156</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>52.784733303651201</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>34.626871371570395</v>
       </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>67.879856955117205</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6">
         <v>60.862766798419699</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6">
         <v>57.229356013068291</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6">
         <v>48.694597880487194</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6">
         <v>54.323948392765601</v>
       </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>57.974872056147298</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6">
         <v>57.752987395711905</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6">
         <v>46.897214612306506</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6">
         <v>56.827364361123799</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6">
         <v>54.983569421132692</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6">
         <v>88.417060167422406</v>
       </c>
     </row>
@@ -999,49 +998,49 @@
       <c r="E7">
         <v>400158</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>29.188694512446002</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>34.125415906600395</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7">
         <v>30.701913228065603</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7">
         <v>41.438920740552796</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7">
         <v>30.451727879128001</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7">
         <v>33.520884438743096</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7">
         <v>18.382285901616701</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7">
         <v>41.547529907735402</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7">
         <v>39.510916828344101</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7">
         <v>24.997500915262407</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7">
         <v>30.686184621669</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7">
         <v>31.636034170610905</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7">
         <v>18.529007822931099</v>
       </c>
     </row>
@@ -1061,49 +1060,49 @@
       <c r="E8">
         <v>400160</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>36.867783399384088</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>44.735785972228804</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
         <v>40.0109149291752</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8">
         <v>43.708061646614503</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8">
         <v>37.316698148808605</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8">
         <v>40.741848449810092</v>
       </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>42.788254983304007</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8">
         <v>44.790593226879608</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8">
         <v>32.375297067222498</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8">
         <v>38.924755358248298</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8">
         <v>39.308575011640599</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8">
         <v>32.714381189709904</v>
       </c>
     </row>
@@ -1123,49 +1122,49 @@
       <c r="E9">
         <v>400173</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>44.944770900877408</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9">
         <v>4.7636616978855963</v>
       </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>53.891703461943393</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9">
         <v>48.718845893364801</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9">
         <v>43.335986188623103</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9">
         <v>41.458613950222301</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9">
         <v>45.628076458643797</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9">
         <v>2.5396806841289976</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9">
         <v>42.087755718424702</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9">
         <v>46.282436031217593</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9">
         <v>39.534192232900601</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9">
         <v>46.062488821119807</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9">
         <v>45.445904781405098</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9">
         <v>82.551671935535197</v>
       </c>
     </row>
@@ -1185,49 +1184,49 @@
       <c r="E10">
         <v>400177</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>48.441701504119308</v>
       </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>43.927253086386401</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10">
         <v>43.574072241567698</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10">
         <v>44.489296024201096</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10">
         <v>39.9759905837236</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10">
         <v>42.439790716753102</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10">
         <v>4.9342645541694985</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10">
         <v>43.101630940746404</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10">
         <v>45.804391356669207</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10">
         <v>35.8461570333642</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10">
         <v>42.070625485462998</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10">
         <v>42.093409351353294</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10">
         <v>46.108660743138095</v>
       </c>
     </row>
@@ -1247,49 +1246,49 @@
       <c r="E11">
         <v>404104</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>69.425244988558006</v>
       </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>67.382646124327493</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11">
         <v>60.589794980520992</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11">
         <v>56.624268524888308</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11">
         <v>49.884505348117294</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11">
         <v>56.278062474930302</v>
       </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>55.576946299955111</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11">
         <v>59.108085281545812</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11">
         <v>46.399549150828598</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11">
         <v>56.945239267196989</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11">
         <v>55.769810221972605</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11">
         <v>88.412958835212592</v>
       </c>
     </row>
@@ -1309,49 +1308,49 @@
       <c r="E12">
         <v>404109</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>73.580339896084496</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12">
         <v>44.688155386100497</v>
       </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>68.343576397475502</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12">
         <v>62.278456716432707</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12">
         <v>59.310022873023001</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12">
         <v>53.433649597389099</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12">
         <v>58.679099385391098</v>
       </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>58.488070632741106</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12">
         <v>61.146632725408701</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12">
         <v>50.689191647559703</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12">
         <v>59.129646844487297</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12">
         <v>58.250765406381902</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12">
         <v>86.183907758994494</v>
       </c>
     </row>
@@ -1371,49 +1370,49 @@
       <c r="E13">
         <v>404111</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>72.614639098091303</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13">
         <v>10.024178281776603</v>
       </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>67.552663121332202</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13">
         <v>61.50218598005619</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13">
         <v>58.899886189486296</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13">
         <v>52.786443778554506</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13">
         <v>58.070910454010694</v>
       </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>58.101104104604197</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13">
         <v>60.644345328822816</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13">
         <v>49.891035707110696</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13">
         <v>58.426182769909992</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13">
         <v>57.594245150722401</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13">
         <v>86.660588721762295</v>
       </c>
     </row>
@@ -1433,49 +1432,49 @@
       <c r="E14">
         <v>404123</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>55.456818688870094</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14">
         <v>3.5926156605581019</v>
       </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>65.504859725598891</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14">
         <v>59.475616306481307</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14">
         <v>55.794388119158299</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14">
         <v>50.535137429922905</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14">
         <v>55.750153163088299</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14">
         <v>4.8838416608825046</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14">
         <v>54.907088185057098</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14">
         <v>57.923862549112506</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14">
         <v>48.004085004231399</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14">
         <v>56.345331943046993</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14">
         <v>55.411315900067407</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14">
         <v>86.709960873540794</v>
       </c>
     </row>
@@ -1495,49 +1494,49 @@
       <c r="E15">
         <v>404138</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>65.069840286558104</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>11.434776296531901</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15">
         <v>66.392836647494804</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15">
         <v>60.347242092802887</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15">
         <v>57.71515461159791</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15">
         <v>51.700319988579402</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15">
         <v>56.994936770474006</v>
       </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>56.956484720867998</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15">
         <v>59.5571964860804</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15">
         <v>48.7459764258791</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15">
         <v>57.3155486617988</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15">
         <v>56.504389389828006</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15">
         <v>86.956497705626191</v>
       </c>
     </row>
@@ -1557,49 +1556,49 @@
       <c r="E16">
         <v>404147</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16">
         <v>70.332601502578299</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16">
         <v>33.298742099674705</v>
       </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>65.691317629117393</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16">
         <v>59.672698380653102</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16">
         <v>57.932664902309703</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16">
         <v>51.299087301965997</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16">
         <v>56.635673871748104</v>
       </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>57.187105408576791</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16">
         <v>59.461787186996197</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16">
         <v>48.057828628336594</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16">
         <v>56.764729234698905</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16">
         <v>56.044921165286198</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16">
         <v>87.266144426653909</v>
       </c>
     </row>
@@ -1619,49 +1618,49 @@
       <c r="E17">
         <v>404161</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17">
         <v>66.334292574985</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17">
         <v>36.342450930497101</v>
       </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>61.274721172217703</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17">
         <v>55.306243795981104</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17">
         <v>48.413699548472295</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17">
         <v>45.408338564364897</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17">
         <v>50.388184768864399</v>
       </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>46.871694016127705</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17">
         <v>51.886939365656303</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17">
         <v>44.724755369009998</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17">
         <v>51.755832892298301</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17">
         <v>50.413036780863798</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17">
         <v>85.170157909959599</v>
       </c>
     </row>
@@ -1681,49 +1680,49 @@
       <c r="E18">
         <v>404190</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18">
         <v>61.877415213321505</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18">
         <v>17.880691693149103</v>
       </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>68.422245597055493</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18">
         <v>61.366591931920091</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18">
         <v>59.350427450832797</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18">
         <v>51.169483464150304</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18">
         <v>57.960465655609198</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18">
         <v>0.87804990978520014</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18">
         <v>56.754444242105208</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18">
         <v>61.300418772652101</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18">
         <v>46.934239190512095</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18">
         <v>57.986185801398008</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18">
         <v>57.034755502169702</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18">
         <v>88.616498899537106</v>
       </c>
     </row>
@@ -1743,49 +1742,49 @@
       <c r="E19">
         <v>404712</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19">
         <v>73.520128464375105</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19">
         <v>34.189695796184992</v>
       </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>68.121125680630598</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19">
         <v>61.188817666865404</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19">
         <v>44.346668791273302</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19">
         <v>50.295849548634699</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19">
         <v>56.608041936353104</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19">
         <v>10.170905350229297</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19">
         <v>45.616172416539705</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19">
         <v>60.705394790127102</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19">
         <v>47.293358897928798</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19">
         <v>57.409137166579406</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19">
         <v>56.097756533727996</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19">
         <v>88.155968803421004</v>
       </c>
     </row>
@@ -1805,49 +1804,49 @@
       <c r="E20">
         <v>404717</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20">
         <v>52.705150607577799</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20">
         <v>8.9246918618789977</v>
       </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>51.848559621638792</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20">
         <v>47.020830966508996</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20">
         <v>51.409972355672195</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20">
         <v>43.445345728970608</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20">
         <v>47.153263397063306</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20">
         <v>29.865893051917801</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20">
         <v>51.030856806276205</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20">
         <v>51.305302241412207</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20">
         <v>38.637982643470593</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20">
         <v>45.506893550536809</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20">
         <v>45.881982649802097</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20">
         <v>57.485989886037295</v>
       </c>
     </row>
@@ -1867,49 +1866,49 @@
       <c r="E21">
         <v>404730</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21">
         <v>72.985350009070089</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21">
         <v>0.80712117582190102</v>
       </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>68.284613529166592</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21">
         <v>62.637783894992602</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21">
         <v>59.489951105317608</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21">
         <v>53.35652113294951</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21">
         <v>59.03810801336671</v>
       </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>58.715128829123998</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21">
         <v>61.310668153270001</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21">
         <v>50.615484635768503</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21">
         <v>59.636621368590603</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21">
         <v>58.666422907675006</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21">
         <v>90.496905317983263</v>
       </c>
     </row>
@@ -1929,49 +1928,49 @@
       <c r="E22">
         <v>404740</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22">
         <v>54.141346377210198</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22">
         <v>26.009227409661101</v>
       </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>63.506748173095694</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22">
         <v>56.814177233988993</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22">
         <v>47.983399832235506</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22">
         <v>45.229876571163899</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22">
         <v>51.160398811886701</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22">
         <v>9.7507639898939011</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22">
         <v>46.447600050325505</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22">
         <v>52.129936623296402</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22">
         <v>43.227423260463503</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22">
         <v>52.782040767012695</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22">
         <v>51.188884516199494</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22">
         <v>87.141156837682104</v>
       </c>
     </row>
@@ -1991,49 +1990,49 @@
       <c r="E23">
         <v>404748</v>
       </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>23.092642715513499</v>
       </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>58.687187505354203</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23">
         <v>52.594897987280007</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23">
         <v>45.452069988401192</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23">
         <v>43.252035170733805</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23">
         <v>48.213558300860797</v>
       </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>43.930067411117605</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23">
         <v>49.154702758087105</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23">
         <v>41.477276817307406</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23">
         <v>49.307209394337107</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23">
         <v>48.172786681550697</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23">
         <v>85.972744590368791</v>
       </c>
     </row>
@@ -2053,49 +2052,49 @@
       <c r="E24">
         <v>404753</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24">
         <v>47.251929250356596</v>
       </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>9.9592966298570058</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24">
         <v>47.464190734211201</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24">
         <v>43.012855672505701</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24">
         <v>47.276605634482202</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24">
         <v>40.16508142882099</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24">
         <v>43.427750190205195</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24">
         <v>32.311309791134704</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24">
         <v>46.771663939384602</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24">
         <v>47.29606576193931</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24">
         <v>35.458394530962103</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24">
         <v>41.760213560779704</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24">
         <v>42.179560261490003</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24">
         <v>43.838462433752603</v>
       </c>
     </row>
@@ -2115,49 +2114,49 @@
       <c r="E25">
         <v>404764</v>
       </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>9.3928777999681028</v>
       </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>30.522667703933603</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25">
         <v>26.709807351228598</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25">
         <v>17.890183556846402</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25">
         <v>21.561041712808006</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25">
         <v>23.768785903241309</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25">
         <v>14.8071696021435</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25">
         <v>16.944439506044706</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25">
         <v>21.535949722311404</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25">
         <v>21.290421767230594</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25">
         <v>24.705723838159898</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25">
         <v>24.029687107543797</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25">
         <v>57.445058441765198</v>
       </c>
     </row>
@@ -2177,49 +2176,49 @@
       <c r="E26">
         <v>404769</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26">
         <v>71.263211109682601</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26">
         <v>42.336109751362208</v>
       </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>66.4007985969873</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26">
         <v>60.369618957458293</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26">
         <v>58.239165660113997</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26">
         <v>51.838535098851104</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26">
         <v>57.158552683254001</v>
       </c>
-      <c r="N26" s="4">
-        <v>0</v>
-      </c>
-      <c r="O26" s="4">
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>57.528892405283003</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26">
         <v>59.9423798778163</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26">
         <v>48.750216064678696</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26">
         <v>57.388663974296605</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26">
         <v>56.618577027480008</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26">
         <v>87.104895854382207</v>
       </c>
     </row>
@@ -2239,49 +2238,49 @@
       <c r="E27">
         <v>404775</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27">
         <v>9.5203760224624006</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27">
         <v>61.779919326169299</v>
       </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>61.035570203568199</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27">
         <v>55.204094922986101</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27">
         <v>43.463529797502702</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27">
         <v>46.454299530439002</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27">
         <v>51.165435682864803</v>
       </c>
-      <c r="N27" s="4">
-        <v>0</v>
-      </c>
-      <c r="O27" s="4">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>40.576711819260098</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27">
         <v>51.351159416506199</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27">
         <v>45.474726251555303</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27">
         <v>52.098769749798791</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S27">
         <v>51.217098050924406</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27">
         <v>85.16833975125499</v>
       </c>
     </row>
@@ -2301,49 +2300,49 @@
       <c r="E28">
         <v>404794</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28">
         <v>74.807248918534796</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28">
         <v>39.998098375064501</v>
       </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>70.046987999035395</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28">
         <v>63.434077820736398</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28">
         <v>60.203909811426293</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28">
         <v>52.918542872864293</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28">
         <v>59.214028592433799</v>
       </c>
-      <c r="N28" s="4">
-        <v>0</v>
-      </c>
-      <c r="O28" s="4">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>59.275475462222204</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28">
         <v>62.3133473761606</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28">
         <v>49.359660224696903</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28">
         <v>59.815400663689601</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S28">
         <v>58.668550840691999</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28">
         <v>88.348585079434599</v>
       </c>
     </row>
@@ -2363,49 +2362,49 @@
       <c r="E29">
         <v>406528</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29">
         <v>65.869573976348093</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29">
         <v>0.50442271938000438</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29">
         <v>22.055469018905892</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29">
         <v>67.332758366283599</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29">
         <v>60.863313619411095</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29">
         <v>57.095850750224095</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29">
         <v>50.717713308542301</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29">
         <v>56.965863400374907</v>
       </c>
-      <c r="N29" s="4">
-        <v>0</v>
-      </c>
-      <c r="O29" s="4">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>55.775068409171389</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29">
         <v>59.774867259427502</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29">
         <v>47.005244395444699</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R29">
         <v>57.385663218852699</v>
       </c>
-      <c r="S29" s="4">
+      <c r="S29">
         <v>56.349391759402202</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29">
         <v>88.384591612177204</v>
       </c>
     </row>
@@ -2425,49 +2424,49 @@
       <c r="E30">
         <v>406552</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30">
         <v>4.4910286140345974</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30">
         <v>72.465691782911108</v>
       </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>67.871323410725793</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30">
         <v>61.6804369613414</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30">
         <v>28.4417781266466</v>
       </c>
-      <c r="L30" s="4">
-        <v>0</v>
-      </c>
-      <c r="M30" s="4">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>36.736107635118799</v>
       </c>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>35.172389055283105</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30">
         <v>34.871683065722706</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30">
         <v>49.915203670153595</v>
       </c>
-      <c r="R30" s="4">
-        <v>0</v>
-      </c>
-      <c r="S30" s="4">
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <v>51.0440983699566</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30">
         <v>81.472999087446397</v>
       </c>
     </row>
@@ -2487,49 +2486,49 @@
       <c r="E31">
         <v>406576</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31">
         <v>54.283736085637699</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31">
         <v>45.153416434759798</v>
       </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>67.057632037747197</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31">
         <v>59.046145730663405</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31">
         <v>59.188883950597607</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31">
         <v>48.7726494681378</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31">
         <v>52.789585912638202</v>
       </c>
-      <c r="N31" s="4">
-        <v>0</v>
-      </c>
-      <c r="O31" s="4">
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
         <v>58.553724258925314</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31">
         <v>58.366603568070509</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31">
         <v>48.357646507453197</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R31">
         <v>53.991116269310993</v>
       </c>
-      <c r="S31" s="4">
+      <c r="S31">
         <v>54.845039127132097</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31">
         <v>87.956603588941789</v>
       </c>
     </row>
@@ -2549,49 +2548,49 @@
       <c r="E32">
         <v>408704</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32">
         <v>56.191295990155901</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32">
         <v>20.505922647181301</v>
       </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>54.533098135938495</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32">
         <v>49.464632412052303</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32">
         <v>52.722750424723607</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32">
         <v>44.9796042274115</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32">
         <v>49.029437031283493</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32">
         <v>17.678319463843106</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32">
         <v>52.255982042975106</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32">
         <v>52.9265463299147</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32">
         <v>40.465082184264801</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R32">
         <v>47.655087900216095</v>
       </c>
-      <c r="S32" s="4">
+      <c r="S32">
         <v>47.887110299045197</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32">
         <v>68.425249302356804</v>
       </c>
     </row>
@@ -2611,49 +2610,49 @@
       <c r="E33">
         <v>408725</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33">
         <v>70.627989294255499</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33">
         <v>2.4424622267199547E-2</v>
       </c>
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>65.932238967348894</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33">
         <v>59.909877300778987</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33">
         <v>58.060203155184212</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33">
         <v>51.489645901558404</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33">
         <v>56.8226156986549</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33">
         <v>15.207533945900698</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33">
         <v>57.308085828675189</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33">
         <v>59.616341844110302</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33">
         <v>48.2918639776736</v>
       </c>
-      <c r="R33" s="4">
+      <c r="R33">
         <v>56.980706069134904</v>
       </c>
-      <c r="S33" s="4">
+      <c r="S33">
         <v>56.246456982108292</v>
       </c>
-      <c r="T33" s="4">
+      <c r="T33">
         <v>87.232803410088394</v>
       </c>
     </row>
@@ -2673,49 +2672,49 @@
       <c r="E34">
         <v>408743</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34">
         <v>57.387227606423011</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34">
         <v>37.059141392708995</v>
       </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>65.461646692711199</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34">
         <v>59.384122943507009</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34">
         <v>55.791211449531197</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34">
         <v>50.516505295705905</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34">
         <v>55.757555220106902</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34">
         <v>5.2783095047232997</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34">
         <v>54.799215687115201</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34">
         <v>57.947840138049798</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34">
         <v>47.845745397026093</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R34">
         <v>56.261395693012894</v>
       </c>
-      <c r="S34" s="4">
+      <c r="S34">
         <v>55.367170850005088</v>
       </c>
-      <c r="T34" s="4">
+      <c r="T34">
         <v>86.733257557149201</v>
       </c>
     </row>
@@ -2735,49 +2734,49 @@
       <c r="E35">
         <v>408747</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35">
         <v>66.010396715734501</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35">
         <v>18.605829935524898</v>
       </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>62.328706838430307</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35">
         <v>56.340226232231203</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35">
         <v>56.105217356537196</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35">
         <v>48.678080286145999</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35">
         <v>53.987692761275795</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35">
         <v>19.816950019833403</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35">
         <v>55.44302455040571</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35">
         <v>57.274390180066902</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35">
         <v>44.849771018383301</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R35">
         <v>53.711290920643407</v>
       </c>
-      <c r="S35" s="4">
+      <c r="S35">
         <v>53.192894198928009</v>
       </c>
-      <c r="T35" s="4">
+      <c r="T35">
         <v>86.1370187421834</v>
       </c>
     </row>
@@ -2797,49 +2796,49 @@
       <c r="E36">
         <v>408782</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36">
         <v>59.024034252743803</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36">
         <v>34.848955411095005</v>
       </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>63.5516550248459</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36">
         <v>57.138981683060507</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36">
         <v>55.468259242174902</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36">
         <v>48.9350822512476</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36">
         <v>53.661370915798599</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36">
         <v>13.038907004495092</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36">
         <v>53.911458925501201</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36">
         <v>56.581592968693798</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36">
         <v>46.158123538312402</v>
       </c>
-      <c r="R36" s="4">
+      <c r="R36">
         <v>54.3566246103696</v>
       </c>
-      <c r="S36" s="4">
+      <c r="S36">
         <v>53.414975124536198</v>
       </c>
-      <c r="T36" s="4">
+      <c r="T36">
         <v>86.635980904081407</v>
       </c>
     </row>
@@ -2859,49 +2858,49 @@
       <c r="E37">
         <v>408786</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37">
         <v>46.1671848421406</v>
       </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>46.175022313734694</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37">
         <v>41.233502306785795</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37">
         <v>46.231995209462205</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37">
         <v>38.117723059553498</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37">
         <v>41.740289571020696</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37">
         <v>31.059395391715306</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37">
         <v>45.845978893378302</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37">
         <v>46.179487423825094</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37">
         <v>33.031996256396198</v>
       </c>
-      <c r="R37" s="4">
+      <c r="R37">
         <v>39.9897111923731</v>
       </c>
-      <c r="S37" s="4">
+      <c r="S37">
         <v>40.327804004198406</v>
       </c>
-      <c r="T37" s="4">
+      <c r="T37">
         <v>38.773360447833795</v>
       </c>
     </row>
@@ -2921,49 +2920,49 @@
       <c r="E38">
         <v>408790</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38">
         <v>67.602472540742099</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38">
         <v>21.215693528218598</v>
       </c>
-      <c r="H38" s="4">
-        <v>0</v>
-      </c>
-      <c r="I38" s="4">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>63.452060358784415</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38">
         <v>57.458515116452901</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38">
         <v>56.689959569628797</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38">
         <v>49.538127696322995</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38">
         <v>54.869632183966303</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38">
         <v>15.883443375346095</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38">
         <v>55.998003151988705</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38">
         <v>57.987851685543504</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38">
         <v>45.913904229704606</v>
       </c>
-      <c r="R38" s="4">
+      <c r="R38">
         <v>54.736199377134</v>
       </c>
-      <c r="S38" s="4">
+      <c r="S38">
         <v>54.147234024908499</v>
       </c>
-      <c r="T38" s="4">
+      <c r="T38">
         <v>86.870161731508901</v>
       </c>
     </row>

--- a/DAM_Database/Hazards/Salinity/Adaptation Deficit_upazila.xlsx
+++ b/DAM_Database/Hazards/Salinity/Adaptation Deficit_upazila.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PortableCompiler\Codes\Dynamic Adaptation Model\DAM\DAM_Database\Hazards\Salinity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BB6D7B-8F64-420A-A76A-BA641829D94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F9D93F-B006-4938-8746-11061F63B7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{498DBFC2-CFCD-45D1-9CB3-0011FEE63B85}"/>
   </bookViews>
@@ -39,51 +39,12 @@
     <t>THACODE</t>
   </si>
   <si>
-    <t>Fishculture</t>
-  </si>
-  <si>
-    <t>Livestock</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>Safe drinking water</t>
-  </si>
-  <si>
-    <t>Irrigation System</t>
-  </si>
-  <si>
-    <t>Plantation</t>
-  </si>
-  <si>
-    <t>Migration</t>
-  </si>
-  <si>
     <t>Trainning</t>
   </si>
   <si>
-    <t>Social protection</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Health care</t>
-  </si>
-  <si>
     <t>Growth centre</t>
   </si>
   <si>
-    <t>Alternative livelihood</t>
-  </si>
-  <si>
-    <t>Organizational support</t>
-  </si>
-  <si>
-    <t>Cropping system</t>
-  </si>
-  <si>
     <t>Bagerhat</t>
   </si>
   <si>
@@ -226,6 +187,45 @@
   </si>
   <si>
     <t>West</t>
+  </si>
+  <si>
+    <t>Fishculture (Culture/capture)</t>
+  </si>
+  <si>
+    <t>Livestock (Cattle/Poultry)</t>
+  </si>
+  <si>
+    <t>Non-institutional Loan</t>
+  </si>
+  <si>
+    <t>Safe drinking water Source</t>
+  </si>
+  <si>
+    <t>Irrigation System for crops</t>
+  </si>
+  <si>
+    <t>Homestead Plantation &amp; Vegetation</t>
+  </si>
+  <si>
+    <t>Livelihood Migration</t>
+  </si>
+  <si>
+    <t>Social protection Protection</t>
+  </si>
+  <si>
+    <t>Communication Infrastructure</t>
+  </si>
+  <si>
+    <t>Health care Provider</t>
+  </si>
+  <si>
+    <t>Alternative livelihood Options</t>
+  </si>
+  <si>
+    <t>Microcredit/Organizational support (Emergency Support)</t>
+  </si>
+  <si>
+    <t>Cropping system (Shrim/Crab/Agricultural Crops)</t>
   </si>
 </sst>
 </file>
@@ -612,78 +612,78 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
       <c r="T1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>400108</v>
@@ -736,16 +736,16 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>400114</v>
@@ -798,16 +798,16 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>400134</v>
@@ -860,16 +860,16 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>400138</v>
@@ -922,16 +922,16 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>400156</v>
@@ -984,16 +984,16 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>400158</v>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>400160</v>
@@ -1108,16 +1108,16 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>400173</v>
@@ -1170,16 +1170,16 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
       </c>
       <c r="E10">
         <v>400177</v>
@@ -1232,16 +1232,16 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
       </c>
       <c r="E11">
         <v>404104</v>
@@ -1294,16 +1294,16 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>404109</v>
@@ -1356,16 +1356,16 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>404111</v>
@@ -1418,16 +1418,16 @@
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>404123</v>
@@ -1480,16 +1480,16 @@
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>404138</v>
@@ -1542,16 +1542,16 @@
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>404147</v>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>404161</v>
@@ -1666,16 +1666,16 @@
     </row>
     <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>404190</v>
@@ -1728,16 +1728,16 @@
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>404712</v>
@@ -1790,16 +1790,16 @@
     </row>
     <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>404717</v>
@@ -1852,16 +1852,16 @@
     </row>
     <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>404730</v>
@@ -1914,16 +1914,16 @@
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>404740</v>
@@ -1976,16 +1976,16 @@
     </row>
     <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>404748</v>
@@ -2038,16 +2038,16 @@
     </row>
     <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>404753</v>
@@ -2100,16 +2100,16 @@
     </row>
     <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <v>404764</v>
@@ -2162,16 +2162,16 @@
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>404769</v>
@@ -2224,16 +2224,16 @@
     </row>
     <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>404775</v>
@@ -2286,16 +2286,16 @@
     </row>
     <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>404794</v>
@@ -2348,16 +2348,16 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>406528</v>
@@ -2410,16 +2410,16 @@
     </row>
     <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>406552</v>
@@ -2472,16 +2472,16 @@
     </row>
     <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E31">
         <v>406576</v>
@@ -2534,16 +2534,16 @@
     </row>
     <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>408704</v>
@@ -2596,16 +2596,16 @@
     </row>
     <row r="33" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E33">
         <v>408725</v>
@@ -2658,16 +2658,16 @@
     </row>
     <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E34">
         <v>408743</v>
@@ -2720,16 +2720,16 @@
     </row>
     <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>408747</v>
@@ -2782,16 +2782,16 @@
     </row>
     <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E36">
         <v>408782</v>
@@ -2844,16 +2844,16 @@
     </row>
     <row r="37" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E37">
         <v>408786</v>
@@ -2906,16 +2906,16 @@
     </row>
     <row r="38" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E38">
         <v>408790</v>
